--- a/data/IEA_Minerals demand.xlsx
+++ b/data/IEA_Minerals demand.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istrateir\Research\Projects\towards_netzero_metals\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istrateir\Research\Projects\decarbonization_LIB_raw_materials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48474AB-6654-4B00-B5A9-37661283822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A60AE4-9A3F-463F-8705-A40EFC553110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total demand" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Lithium</t>
   </si>
@@ -98,30 +98,15 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Methanol</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>ecoinvent 3.9.1: methanol production [GLO]</t>
-  </si>
-  <si>
     <t>Cement</t>
   </si>
   <si>
-    <t>ecoinvent 3.9.1: market for cement, Portland [RoW]</t>
-  </si>
-  <si>
     <t>World Steel Association (https://worldsteel.org/wp-content/uploads/Life-cycle-inventory-LCI-study-2020-data-release.pdf)</t>
   </si>
   <si>
-    <t>Liu et al. (DOI: 10.1039/d0gc02301a)</t>
-  </si>
-  <si>
     <t>Lithium hydroxide</t>
   </si>
   <si>
@@ -141,6 +126,9 @@
   </si>
   <si>
     <t>Silicon (metallurgical)</t>
+  </si>
+  <si>
+    <t>ecoinvent 3.10: market for cement, Portland [RoW]</t>
   </si>
 </sst>
 </file>
@@ -185,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,9 +193,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,6 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,16 +491,16 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.1796875" style="2"/>
+    <col min="4" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -543,8 +532,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -575,8 +564,8 @@
         <v>9.7679399999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
       <c r="B3" s="2">
         <v>2030</v>
       </c>
@@ -605,8 +594,8 @@
         <v>22.427299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
       <c r="B4" s="2">
         <v>2035</v>
       </c>
@@ -635,8 +624,8 @@
         <v>24.2742</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
       <c r="B5" s="2">
         <v>2040</v>
       </c>
@@ -665,8 +654,8 @@
         <v>26.881</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
       <c r="B6" s="2">
         <v>2045</v>
       </c>
@@ -695,8 +684,8 @@
         <v>31.557099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
       <c r="B7" s="2">
         <v>2050</v>
       </c>
@@ -725,8 +714,8 @@
         <v>34.212800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -757,8 +746,8 @@
         <v>30.985900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
       <c r="B9" s="2">
         <v>2035</v>
       </c>
@@ -787,8 +776,8 @@
         <v>44.994300000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
       <c r="B10" s="2">
         <v>2040</v>
       </c>
@@ -817,8 +806,8 @@
         <v>54.056600000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
       <c r="B11" s="2">
         <v>2045</v>
       </c>
@@ -847,8 +836,8 @@
         <v>59.128500000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
       <c r="B12" s="2">
         <v>2050</v>
       </c>
@@ -877,8 +866,8 @@
         <v>65.118700000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -909,8 +898,8 @@
         <v>50.073999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
       <c r="B14" s="2">
         <v>2035</v>
       </c>
@@ -939,8 +928,8 @@
         <v>57.194200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
       <c r="B15" s="2">
         <v>2040</v>
       </c>
@@ -969,8 +958,8 @@
         <v>53.062399999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
       <c r="B16" s="2">
         <v>2045</v>
       </c>
@@ -999,8 +988,8 @@
         <v>48.893300000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
       <c r="B17" s="2">
         <v>2050</v>
       </c>
@@ -1047,12 +1036,12 @@
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1084,8 +1073,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -1116,8 +1105,8 @@
         <v>3.9619399999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="11"/>
       <c r="B3" s="2">
         <v>2030</v>
       </c>
@@ -1146,8 +1135,8 @@
         <v>12.216200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
       <c r="B4" s="2">
         <v>2035</v>
       </c>
@@ -1176,8 +1165,8 @@
         <v>15.1311</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
       <c r="B5" s="2">
         <v>2040</v>
       </c>
@@ -1206,8 +1195,8 @@
         <v>18.849599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
       <c r="B6" s="2">
         <v>2045</v>
       </c>
@@ -1236,8 +1225,8 @@
         <v>21.8002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
       <c r="B7" s="2">
         <v>2050</v>
       </c>
@@ -1266,8 +1255,8 @@
         <v>22.879100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -1298,8 +1287,8 @@
         <v>17.6343</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
       <c r="B9" s="2">
         <v>2035</v>
       </c>
@@ -1328,8 +1317,8 @@
         <v>30.258199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
       <c r="B10" s="2">
         <v>2040</v>
       </c>
@@ -1358,8 +1347,8 @@
         <v>39.487299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
       <c r="B11" s="2">
         <v>2045</v>
       </c>
@@ -1388,8 +1377,8 @@
         <v>44.3123</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
       <c r="B12" s="2">
         <v>2050</v>
       </c>
@@ -1418,8 +1407,8 @@
         <v>48.733800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -1450,8 +1439,8 @@
         <v>26.305199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
       <c r="B14" s="2">
         <v>2035</v>
       </c>
@@ -1480,8 +1469,8 @@
         <v>35.014499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
       <c r="B15" s="2">
         <v>2040</v>
       </c>
@@ -1510,8 +1499,8 @@
         <v>33.930100000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
       <c r="B16" s="2">
         <v>2045</v>
       </c>
@@ -1540,8 +1529,8 @@
         <v>36.664099999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
       <c r="B17" s="2">
         <v>2050</v>
       </c>
@@ -1582,93 +1571,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB5DF9A-185F-4F61-BFCE-B370932C95C1}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
-        <v>7.6119450000000004</v>
+        <v>7.3</v>
       </c>
       <c r="C2" s="3">
-        <v>0.74884689506996704</v>
+        <v>0.7</v>
       </c>
       <c r="D2" s="3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E2" s="3">
-        <v>10.707488</v>
+        <v>6.3</v>
       </c>
       <c r="F2" s="3">
         <v>25</v>
       </c>
       <c r="G2" s="3">
-        <v>12.775562000000001</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="I2" s="7">
-        <v>12.8849453063496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11.5246194693791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
-        <v>16.039000000000001</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+        <v>15.7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22.4</v>
+      </c>
       <c r="E3" s="3">
-        <v>11.080017</v>
+        <v>20.6</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>35.6</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1681,16 +1686,16 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1698,21 +1703,21 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6">
-        <v>0.94493216471435004</v>
+        <v>0.94746015211833301</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1720,30 +1725,14 @@
         <v>2.35</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.72641711617521998</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/IEA_Minerals demand.xlsx
+++ b/data/IEA_Minerals demand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istrateir\Research\Projects\decarbonization_LIB_raw_materials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leidenuniv1-my.sharepoint.com/personal/istrateir_vuw_leidenuniv_nl/Documents/Research/decarbonization_LIB_raw_materials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A60AE4-9A3F-463F-8705-A40EFC553110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C5A60AE4-9A3F-463F-8705-A40EFC553110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7359C3CE-C9CF-4984-9085-9DC84820A5B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total demand" sheetId="1" r:id="rId1"/>
@@ -107,21 +107,6 @@
     <t>World Steel Association (https://worldsteel.org/wp-content/uploads/Life-cycle-inventory-LCI-study-2020-data-release.pdf)</t>
   </si>
   <si>
-    <t>Lithium hydroxide</t>
-  </si>
-  <si>
-    <t>Manganese sulfate</t>
-  </si>
-  <si>
-    <t>Nickel sulfate</t>
-  </si>
-  <si>
-    <t>Neodymium oxide</t>
-  </si>
-  <si>
-    <t>Cobalt sulfate</t>
-  </si>
-  <si>
     <t>Copper cathode</t>
   </si>
   <si>
@@ -129,6 +114,21 @@
   </si>
   <si>
     <t>ecoinvent 3.10: market for cement, Portland [RoW]</t>
+  </si>
+  <si>
+    <t>Lithium hydroxide (LiOH)</t>
+  </si>
+  <si>
+    <t>Manganese sulfate (MnSO$_4$)</t>
+  </si>
+  <si>
+    <t>Nickel sulfate (NiSO$_4$)</t>
+  </si>
+  <si>
+    <t>Neodymium oxide (Nd$_2$O$_3$)</t>
+  </si>
+  <si>
+    <t>Cobalt sulfate (CoSO$_4$)</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,7 +204,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,16 +490,16 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="2"/>
-    <col min="4" max="7" width="9.1796875" style="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -532,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -564,7 +563,7 @@
         <v>9.7679399999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="2">
         <v>2030</v>
@@ -594,7 +593,7 @@
         <v>22.427299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="2">
         <v>2035</v>
@@ -624,7 +623,7 @@
         <v>24.2742</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="2">
         <v>2040</v>
@@ -654,7 +653,7 @@
         <v>26.881</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="2">
         <v>2045</v>
@@ -684,7 +683,7 @@
         <v>31.557099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="2">
         <v>2050</v>
@@ -714,7 +713,7 @@
         <v>34.212800000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -746,7 +745,7 @@
         <v>30.985900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="2">
         <v>2035</v>
@@ -776,7 +775,7 @@
         <v>44.994300000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="2">
         <v>2040</v>
@@ -806,7 +805,7 @@
         <v>54.056600000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2">
         <v>2045</v>
@@ -836,7 +835,7 @@
         <v>59.128500000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="2">
         <v>2050</v>
@@ -866,7 +865,7 @@
         <v>65.118700000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
@@ -898,7 +897,7 @@
         <v>50.073999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="2">
         <v>2035</v>
@@ -928,7 +927,7 @@
         <v>57.194200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="2">
         <v>2040</v>
@@ -958,7 +957,7 @@
         <v>53.062399999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="2">
         <v>2045</v>
@@ -988,7 +987,7 @@
         <v>48.893300000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="2">
         <v>2050</v>
@@ -1036,12 +1035,12 @@
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>3.9619399999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="2">
         <v>2030</v>
@@ -1135,7 +1134,7 @@
         <v>12.216200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="2">
         <v>2035</v>
@@ -1165,7 +1164,7 @@
         <v>15.1311</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="2">
         <v>2040</v>
@@ -1195,7 +1194,7 @@
         <v>18.849599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="2">
         <v>2045</v>
@@ -1225,7 +1224,7 @@
         <v>21.8002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="2">
         <v>2050</v>
@@ -1255,7 +1254,7 @@
         <v>22.879100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>17.6343</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="2">
         <v>2035</v>
@@ -1317,7 +1316,7 @@
         <v>30.258199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="2">
         <v>2040</v>
@@ -1347,7 +1346,7 @@
         <v>39.487299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2">
         <v>2045</v>
@@ -1377,7 +1376,7 @@
         <v>44.3123</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="2">
         <v>2050</v>
@@ -1407,7 +1406,7 @@
         <v>48.733800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>26.305199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="2">
         <v>2035</v>
@@ -1469,7 +1468,7 @@
         <v>35.014499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="2">
         <v>2040</v>
@@ -1499,7 +1498,7 @@
         <v>33.930100000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="2">
         <v>2045</v>
@@ -1529,7 +1528,7 @@
         <v>36.664099999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="2">
         <v>2050</v>
@@ -1571,49 +1570,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB5DF9A-185F-4F61-BFCE-B370932C95C1}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>11.5246194693791</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1664,16 +1663,6 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1689,13 +1678,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1714,10 +1703,10 @@
         <v>0.94746015211833301</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1728,10 +1717,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
     </row>
   </sheetData>

--- a/data/IEA_Minerals demand.xlsx
+++ b/data/IEA_Minerals demand.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leidenuniv1-my.sharepoint.com/personal/istrateir_vuw_leidenuniv_nl/Documents/Research/decarbonization_LIB_raw_materials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C5A60AE4-9A3F-463F-8705-A40EFC553110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7359C3CE-C9CF-4984-9085-9DC84820A5B8}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{C5A60AE4-9A3F-463F-8705-A40EFC553110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F0617A-9098-40B6-9142-EEBD1FA045AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total demand" sheetId="1" r:id="rId1"/>
     <sheet name="EV demand" sheetId="2" r:id="rId2"/>
     <sheet name="GHG intensity metals" sheetId="3" r:id="rId3"/>
-    <sheet name="GHG intensity commodities" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Lithium</t>
   </si>
@@ -89,31 +88,10 @@
     <t>High</t>
   </si>
   <si>
-    <t>Commodity</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>World Steel Association (https://worldsteel.org/wp-content/uploads/Life-cycle-inventory-LCI-study-2020-data-release.pdf)</t>
-  </si>
-  <si>
     <t>Copper cathode</t>
   </si>
   <si>
     <t>Silicon (metallurgical)</t>
-  </si>
-  <si>
-    <t>ecoinvent 3.10: market for cement, Portland [RoW]</t>
   </si>
   <si>
     <t>Lithium hydroxide (LiOH)</t>
@@ -135,9 +113,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,15 +157,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -532,7 +498,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -564,7 +530,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2">
         <v>2030</v>
       </c>
@@ -594,7 +560,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>2035</v>
       </c>
@@ -624,7 +590,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2">
         <v>2040</v>
       </c>
@@ -654,7 +620,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>2045</v>
       </c>
@@ -684,7 +650,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2">
         <v>2050</v>
       </c>
@@ -714,7 +680,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -746,7 +712,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2">
         <v>2035</v>
       </c>
@@ -776,7 +742,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2">
         <v>2040</v>
       </c>
@@ -806,7 +772,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2">
         <v>2045</v>
       </c>
@@ -836,7 +802,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2">
         <v>2050</v>
       </c>
@@ -866,7 +832,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -898,7 +864,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2">
         <v>2035</v>
       </c>
@@ -928,7 +894,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2">
         <v>2040</v>
       </c>
@@ -958,7 +924,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2">
         <v>2045</v>
       </c>
@@ -988,7 +954,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2">
         <v>2050</v>
       </c>
@@ -1073,7 +1039,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -1105,7 +1071,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2">
         <v>2030</v>
       </c>
@@ -1135,7 +1101,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>2035</v>
       </c>
@@ -1165,7 +1131,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2">
         <v>2040</v>
       </c>
@@ -1195,7 +1161,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>2045</v>
       </c>
@@ -1225,7 +1191,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2">
         <v>2050</v>
       </c>
@@ -1255,7 +1221,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -1287,7 +1253,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2">
         <v>2035</v>
       </c>
@@ -1317,7 +1283,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2">
         <v>2040</v>
       </c>
@@ -1347,7 +1313,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2">
         <v>2045</v>
       </c>
@@ -1377,7 +1343,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2">
         <v>2050</v>
       </c>
@@ -1407,7 +1373,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -1439,7 +1405,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2">
         <v>2035</v>
       </c>
@@ -1469,7 +1435,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2">
         <v>2040</v>
       </c>
@@ -1499,7 +1465,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2">
         <v>2045</v>
       </c>
@@ -1529,7 +1495,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2">
         <v>2050</v>
       </c>
@@ -1573,43 +1539,43 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>23</v>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1620,25 +1586,25 @@
         <v>7.3</v>
       </c>
       <c r="C2" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.7</v>
       </c>
-      <c r="D2" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4</v>
+      <c r="G2" s="4">
+        <v>11.5246194693791</v>
       </c>
       <c r="H2" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="I2" s="3">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="I2" s="7">
-        <v>11.5246194693791</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1649,81 +1615,23 @@
         <v>15.7</v>
       </c>
       <c r="C3" s="3">
-        <v>4.8</v>
+        <v>42.2</v>
       </c>
       <c r="D3" s="3">
-        <v>22.4</v>
-      </c>
-      <c r="E3" s="3">
-        <v>20.6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>35.6</v>
       </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA57BAD9-0599-4074-9A5F-F39CCDE23971}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.94746015211833301</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>